--- a/Research/Xiaomei_Glyphosate.xlsx
+++ b/Research/Xiaomei_Glyphosate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\moops\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C545385-D4A5-4112-8C1E-0BBDC43F7EE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C9783-4265-4104-81A8-1F52A369C4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="12525" xr2:uid="{97690D88-A68B-4985-954E-9A1C9FF6C61C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19710" windowHeight="12525" xr2:uid="{97690D88-A68B-4985-954E-9A1C9FF6C61C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">C_T1_runoff (microgram/mL) </t>
+  </si>
+  <si>
+    <t>k_ads</t>
   </si>
 </sst>
 </file>
@@ -100,6 +103,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>51.750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.14285714285715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.3478260869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.07692307692307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.4074074074074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.92307692307691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154.47154471544715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.34146341463415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.96694214876034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>141.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD28-4842-841E-DC62C5213DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1543448047"/>
+        <c:axId val="1544816719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1543448047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544816719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1544816719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543448047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4DBBDB-88AC-4A9B-A9D7-3B558FE3E43B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,15 +1401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C772EF7C-B08A-4BAC-AF7A-5C143EB52D9E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G2" activeCellId="1" sqref="A2:A21 G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +1428,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -437,8 +1442,12 @@
       <c r="C2">
         <v>84.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>C2/B2</f>
+        <v>51.750000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -449,8 +1458,12 @@
       <c r="C3">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">C3/B3</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -460,8 +1473,12 @@
       <c r="C4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>107.14285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -471,8 +1488,12 @@
       <c r="C5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -482,8 +1503,12 @@
       <c r="C6">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -493,8 +1518,12 @@
       <c r="C7">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>204.3478260869565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -504,8 +1533,12 @@
       <c r="C8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>153.84615384615384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -515,8 +1548,12 @@
       <c r="C9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>123.07692307692307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -526,8 +1563,12 @@
       <c r="C10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>107.4074074074074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
@@ -537,8 +1578,12 @@
       <c r="C11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -548,8 +1593,12 @@
       <c r="C12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36</v>
       </c>
@@ -559,8 +1608,12 @@
       <c r="C13">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>176.92307692307691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>39</v>
       </c>
@@ -570,8 +1623,12 @@
       <c r="C14">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>149.99999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>42</v>
       </c>
@@ -581,8 +1638,12 @@
       <c r="C15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45</v>
       </c>
@@ -592,8 +1653,12 @@
       <c r="C16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>154.47154471544715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48</v>
       </c>
@@ -603,8 +1668,12 @@
       <c r="C17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
@@ -614,8 +1683,12 @@
       <c r="C18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>146.34146341463415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54</v>
       </c>
@@ -625,8 +1698,12 @@
       <c r="C19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>123.96694214876034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -636,8 +1713,12 @@
       <c r="C20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>141.66666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>60</v>
       </c>
@@ -647,8 +1728,13 @@
       <c r="C21">
         <v>16</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Research/Xiaomei_Glyphosate.xlsx
+++ b/Research/Xiaomei_Glyphosate.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\moops\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C9783-4265-4104-81A8-1F52A369C4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA19B47-65E5-4C47-B010-5780455A693B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19710" windowHeight="12525" xr2:uid="{97690D88-A68B-4985-954E-9A1C9FF6C61C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="12525" xr2:uid="{97690D88-A68B-4985-954E-9A1C9FF6C61C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T1" sheetId="1" r:id="rId1"/>
+    <sheet name="T2" sheetId="2" r:id="rId2"/>
+    <sheet name="T3" sheetId="3" r:id="rId3"/>
+    <sheet name="T4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -51,6 +54,27 @@
   </si>
   <si>
     <t>k_ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_T2_runoff (microgram/mL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_T3_runoff (microgram/mL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_T4_runoff (microgram/mL) </t>
+  </si>
+  <si>
+    <t>C_T2_sus</t>
+  </si>
+  <si>
+    <t>C_T3_sus</t>
+  </si>
+  <si>
+    <t>C_T4_sus</t>
+  </si>
+  <si>
+    <t>K_ads</t>
   </si>
 </sst>
 </file>
@@ -184,7 +208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>'T1'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -253,7 +277,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>'T1'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -507,7 +531,1416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K_Ads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'T2'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'T2'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>78.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148.14814814814815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.56521739130434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.52941176470587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.71428571428569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>566.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>212.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1DF-47B3-8B7C-82A55EE48460}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2030945648"/>
+        <c:axId val="1875622608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2030945648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875622608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875622608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030945648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K_ads over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'T3'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'T3'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>41.379310344827587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.04761904761905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204.76190476190476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>246.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3F9-44A6-A4FA-7215BCDFA4E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69348080"/>
+        <c:axId val="1882337184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69348080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882337184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1882337184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69348080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K_ads over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'T4'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'T4'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>38.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>313.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238.46153846153845</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B768-4658-B3E2-7A2AAC40A518}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80964032"/>
+        <c:axId val="1961321488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80964032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961321488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1961321488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80964032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1063,6 +2496,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1084,6 +4065,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4DBBDB-88AC-4A9B-A9D7-3B558FE3E43B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB288D90-254F-4F1B-8F4C-A7DB657EAAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22DBE2C-6D64-4B49-96F0-2EF491D2DA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF57C89-A6A9-4759-B4A3-9433DBB6448B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +4508,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="1" sqref="A2:A21 G2:G21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,4 +4841,994 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024E0DB-7828-48A0-9017-FAF34F4E3C55}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <v>62.72727272727272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.45</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>148.88888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.24</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>195.83333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.27</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>148.14814814814815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.23</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>169.56521739130434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0.18</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>138.88888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>123.52941176470587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>135.71428571428569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.125</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>316.66666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.125</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>0.03</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>566.66666666666674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.08</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0.04</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3CD03-DE43-4E35-85C1-F0A670D47BF3}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.9</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>41.379310344827587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2.25</v>
+      </c>
+      <c r="C3">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <v>51.111111111111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>87.272727272727266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.63</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>119.04761904761905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.45</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>137.77777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.13</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.21</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>204.76190476190476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.35</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>114.28571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.125</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>34.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>246.42857142857142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>242.85714285714283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>0.125</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.125</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
+        <v>32.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>270.83333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0.125</v>
+      </c>
+      <c r="C21">
+        <v>32.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171CED89-90CE-44EF-81B7-BED44989168D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.75</v>
+      </c>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>38.18181818181818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2.25</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <v>39.111111111111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>76.36363636363636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>103.33333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.35</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>162.85714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>173.33333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.18</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>313.33333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.125</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0.22</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>168.18181818181819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.19</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>178.94736842105263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>0.125</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>0.13</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>238.46153846153845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0.125</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>